--- a/classfiers/nano/multinomialNB/smote/nano-multinomialNB-smote-results.xlsx
+++ b/classfiers/nano/multinomialNB/smote/nano-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6721311475409836</v>
+        <v>0.6158940397350994</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7464788732394366</v>
+        <v>0.6804123711340206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7340762490463089</v>
+        <v>0.6535714285714287</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7464788732394366</v>
+        <v>0.6804123711340206</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8729508196721312</v>
+        <v>0.8603603603603603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9272300469483568</v>
+        <v>0.9149217456332461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9268426446555689</v>
+        <v>0.9142799610699064</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9272300469483568</v>
+        <v>0.9149217456332461</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6719745222929936</v>
+        <v>0.6542372881355932</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7535211267605634</v>
+        <v>0.7371134020618557</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7388410451029046</v>
+        <v>0.7171701249570102</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7535211267605633</v>
+        <v>0.7371134020618557</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8122605363984674</v>
+        <v>0.825531914893617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8826291079812207</v>
+        <v>0.8937823834196892</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8811198178286787</v>
+        <v>0.8927941623593797</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8826291079812207</v>
+        <v>0.8937823834196892</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8223938223938224</v>
+        <v>0.758893280632411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.892018779342723</v>
+        <v>0.8368142727418407</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8907448706512042</v>
+        <v>0.833199926112924</v>
       </c>
       <c r="E6" t="n">
-        <v>0.892018779342723</v>
+        <v>0.8368142727418407</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7703421696596795</v>
+        <v>0.7429833767514162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8403755868544602</v>
+        <v>0.8126088349981305</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8343249254569329</v>
+        <v>0.8022031206141298</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8403755868544602</v>
+        <v>0.8126088349981305</v>
       </c>
     </row>
   </sheetData>
